--- a/teaching/traditional_assets/database/data/egypt/egypt_power.xlsx
+++ b/teaching/traditional_assets/database/data/egypt/egypt_power.xlsx
@@ -591,46 +591,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.258</v>
-      </c>
-      <c r="E2">
-        <v>0.532</v>
+        <v>0.261</v>
       </c>
       <c r="G2">
-        <v>-0.02274590163934426</v>
+        <v>-0.05068143100511073</v>
       </c>
       <c r="H2">
-        <v>-0.02274590163934426</v>
+        <v>-0.05068143100511073</v>
       </c>
       <c r="I2">
-        <v>-0.07274590163934426</v>
+        <v>-0.0706984667802385</v>
       </c>
       <c r="J2">
-        <v>-0.06480403791720722</v>
+        <v>-0.0565587734241908</v>
       </c>
       <c r="K2">
-        <v>4.96</v>
+        <v>9.27</v>
       </c>
       <c r="L2">
-        <v>0.02540983606557377</v>
+        <v>0.03948040885860307</v>
       </c>
       <c r="M2">
-        <v>2.01</v>
+        <v>1.41</v>
       </c>
       <c r="N2">
-        <v>0.02421686746987952</v>
+        <v>0.01060948081264108</v>
       </c>
       <c r="O2">
-        <v>0.4052419354838709</v>
+        <v>0.1521035598705502</v>
       </c>
       <c r="P2">
-        <v>2.01</v>
+        <v>1.41</v>
       </c>
       <c r="Q2">
-        <v>0.02421686746987952</v>
+        <v>0.01060948081264108</v>
       </c>
       <c r="R2">
-        <v>0.4052419354838709</v>
+        <v>0.1521035598705502</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,70 +636,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>7.11</v>
+        <v>11.9</v>
       </c>
       <c r="V2">
-        <v>0.08566265060240964</v>
+        <v>0.08954100827689992</v>
       </c>
       <c r="W2">
-        <v>0.09860834990059643</v>
+        <v>0.1459842519685039</v>
       </c>
       <c r="X2">
-        <v>0.1012421528329751</v>
+        <v>0.08581654877709093</v>
       </c>
       <c r="Y2">
-        <v>-0.002633802932378693</v>
+        <v>0.060167703191413</v>
       </c>
       <c r="Z2">
-        <v>1.855513307984791</v>
+        <v>2.078060005310205</v>
       </c>
       <c r="AA2">
-        <v>-0.120244754766529</v>
+        <v>-0.1175325250022126</v>
       </c>
       <c r="AB2">
-        <v>0.08659213083638326</v>
+        <v>0.07289417923711761</v>
       </c>
       <c r="AC2">
-        <v>-0.2068368856029122</v>
+        <v>-0.1904267042393302</v>
       </c>
       <c r="AD2">
-        <v>56.6</v>
+        <v>84.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>56.6</v>
+        <v>84.5</v>
       </c>
       <c r="AG2">
-        <v>49.49</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.4054441260744986</v>
+        <v>0.3886844526218951</v>
       </c>
       <c r="AI2">
-        <v>0.4712739383846795</v>
+        <v>0.3787539220080681</v>
       </c>
       <c r="AJ2">
-        <v>0.3735376254811684</v>
+        <v>0.3532846715328467</v>
       </c>
       <c r="AK2">
-        <v>0.4380033631294805</v>
+        <v>0.34375</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-16.2</v>
+        <v>-27</v>
       </c>
       <c r="AN2">
-        <v>-5.145454545454546</v>
+        <v>-6.550387596899225</v>
       </c>
       <c r="AP2">
-        <v>-4.499090909090909</v>
+        <v>-5.627906976744185</v>
       </c>
       <c r="AQ2">
-        <v>0.8765432098765432</v>
+        <v>0.6148148148148148</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>egypt gas company -sae (CASE:EGAS)</t>
+          <t>Egypt Gas Company SAE (CASE:EGAS)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,46 +719,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.258</v>
-      </c>
-      <c r="E3">
-        <v>0.532</v>
+        <v>0.261</v>
       </c>
       <c r="G3">
-        <v>-0.02274590163934426</v>
+        <v>-0.05068143100511073</v>
       </c>
       <c r="H3">
-        <v>-0.02274590163934426</v>
+        <v>-0.05068143100511073</v>
       </c>
       <c r="I3">
-        <v>-0.07274590163934426</v>
+        <v>-0.0706984667802385</v>
       </c>
       <c r="J3">
-        <v>-0.06480403791720722</v>
+        <v>-0.0565587734241908</v>
       </c>
       <c r="K3">
-        <v>4.96</v>
+        <v>9.27</v>
       </c>
       <c r="L3">
-        <v>0.02540983606557377</v>
+        <v>0.03948040885860307</v>
       </c>
       <c r="M3">
-        <v>2.01</v>
+        <v>1.41</v>
       </c>
       <c r="N3">
-        <v>0.02421686746987952</v>
+        <v>0.01060948081264108</v>
       </c>
       <c r="O3">
-        <v>0.4052419354838709</v>
+        <v>0.1521035598705502</v>
       </c>
       <c r="P3">
-        <v>2.01</v>
+        <v>1.41</v>
       </c>
       <c r="Q3">
-        <v>0.02421686746987952</v>
+        <v>0.01060948081264108</v>
       </c>
       <c r="R3">
-        <v>0.4052419354838709</v>
+        <v>0.1521035598705502</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,70 +764,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>7.11</v>
+        <v>11.9</v>
       </c>
       <c r="V3">
-        <v>0.08566265060240964</v>
+        <v>0.08954100827689992</v>
       </c>
       <c r="W3">
-        <v>0.09860834990059643</v>
+        <v>0.1459842519685039</v>
       </c>
       <c r="X3">
-        <v>0.1012421528329751</v>
+        <v>0.08581654877709093</v>
       </c>
       <c r="Y3">
-        <v>-0.002633802932378693</v>
+        <v>0.060167703191413</v>
       </c>
       <c r="Z3">
-        <v>1.855513307984791</v>
+        <v>2.078060005310205</v>
       </c>
       <c r="AA3">
-        <v>-0.120244754766529</v>
+        <v>-0.1175325250022126</v>
       </c>
       <c r="AB3">
-        <v>0.08659213083638326</v>
+        <v>0.07289417923711761</v>
       </c>
       <c r="AC3">
-        <v>-0.2068368856029122</v>
+        <v>-0.1904267042393302</v>
       </c>
       <c r="AD3">
-        <v>56.6</v>
+        <v>84.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>56.6</v>
+        <v>84.5</v>
       </c>
       <c r="AG3">
-        <v>49.49</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.4054441260744986</v>
+        <v>0.3886844526218951</v>
       </c>
       <c r="AI3">
-        <v>0.4712739383846795</v>
+        <v>0.3787539220080681</v>
       </c>
       <c r="AJ3">
-        <v>0.3735376254811684</v>
+        <v>0.3532846715328467</v>
       </c>
       <c r="AK3">
-        <v>0.4380033631294805</v>
+        <v>0.34375</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-16.2</v>
+        <v>-27</v>
       </c>
       <c r="AN3">
-        <v>-5.145454545454546</v>
+        <v>-6.550387596899225</v>
       </c>
       <c r="AP3">
-        <v>-4.499090909090909</v>
+        <v>-5.627906976744185</v>
       </c>
       <c r="AQ3">
-        <v>0.8765432098765432</v>
+        <v>0.6148148148148148</v>
       </c>
     </row>
   </sheetData>
